--- a/Assets/06.Table/DailyMission.xlsx
+++ b/Assets/06.Table/DailyMission.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Documents\BigHitGame\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7398A8BA-1D4E-4808-A183-BDA4B84D3E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97038F9F-29BB-4ECF-8307-15E1292FBB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="4650" windowWidth="27765" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="2520" yWindow="525" windowWidth="33165" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DailyMission" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -175,6 +175,14 @@
   </si>
   <si>
     <t>enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 뽑기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1011,6 +1019,29 @@
         <v>1</v>
       </c>
     </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="7">
+        <v>10</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>100</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/DailyMission.xlsx
+++ b/Assets/06.Table/DailyMission.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97038F9F-29BB-4ECF-8307-15E1292FBB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C370A3-15B0-4B25-8FA0-CEFBB76901B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="525" windowWidth="33165" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DailyMission" sheetId="1" r:id="rId1"/>
@@ -94,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마도서 뽑기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인내의탑 클리어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,52 +112,16 @@
     <t>Mission12</t>
   </si>
   <si>
-    <t>스킬 각성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>무기 레벨업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마도서 레벨업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고블린 도적단 소탕 입장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mission13</t>
   </si>
   <si>
     <t>Mission14</t>
   </si>
   <si>
-    <t>무기 승급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마도서 승급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>몬스터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0D0D0C"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 처치</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>레벨업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>티켓 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>enable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,7 +138,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스킬 뽑기</t>
+    <t>노리개 뽑기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노리개 레벨업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반딧불전 입장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소환권 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술 각성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 합성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노리개 승급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술 뽑기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴 처치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,7 +628,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -671,7 +659,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -681,8 +669,8 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>32</v>
+      <c r="C2" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="D2" s="5">
         <v>500</v>
@@ -705,7 +693,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -751,7 +739,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D5" s="5">
         <v>100</v>
@@ -774,7 +762,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D6" s="5">
         <v>10</v>
@@ -797,7 +785,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="3">
         <v>10</v>
@@ -820,7 +808,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D8" s="5">
         <v>10</v>
@@ -843,7 +831,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="5">
         <v>5</v>
@@ -866,7 +854,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D10" s="7">
         <v>10</v>
@@ -889,7 +877,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="7">
         <v>10</v>
@@ -912,7 +900,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D12" s="7">
         <v>1</v>
@@ -932,10 +920,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="7">
         <v>1</v>
@@ -947,7 +935,7 @@
         <v>500</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -955,10 +943,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="7">
         <v>1</v>
@@ -970,7 +958,7 @@
         <v>5000</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -978,10 +966,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D15" s="7">
         <v>10</v>
@@ -1001,10 +989,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D16" s="7">
         <v>10</v>
@@ -1024,10 +1012,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="D17" s="7">
         <v>10</v>

--- a/Assets/06.Table/DailyMission.xlsx
+++ b/Assets/06.Table/DailyMission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C370A3-15B0-4B25-8FA0-CEFBB76901B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705DF4DA-AA9C-490D-8A8E-1357CB0DDB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -94,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인내의탑 클리어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>영혼 흡수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,15 +158,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>노리개 승급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기술 뽑기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요괴 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노리개 합성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴도장 클리어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,7 +628,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -659,7 +659,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -670,7 +670,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="5">
         <v>500</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="5">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -693,7 +693,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="5">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -739,7 +739,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="5">
         <v>100</v>
@@ -762,7 +762,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="5">
         <v>10</v>
@@ -785,7 +785,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="3">
         <v>10</v>
@@ -808,7 +808,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="5">
         <v>10</v>
@@ -831,7 +831,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D9" s="5">
         <v>5</v>
@@ -854,7 +854,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="7">
         <v>10</v>
@@ -877,7 +877,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="7">
         <v>10</v>
@@ -900,7 +900,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="7">
         <v>1</v>
@@ -920,10 +920,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7">
         <v>1</v>
@@ -943,10 +943,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="7">
         <v>1</v>
@@ -966,10 +966,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="7">
         <v>10</v>
@@ -989,10 +989,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D16" s="7">
         <v>10</v>
@@ -1012,10 +1012,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D17" s="7">
         <v>10</v>

--- a/Assets/06.Table/DailyMission.xlsx
+++ b/Assets/06.Table/DailyMission.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705DF4DA-AA9C-490D-8A8E-1357CB0DDB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D2B76A-8F7B-43EE-A524-FDAB960CF898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -628,7 +628,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="5">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -889,7 +889,7 @@
         <v>1000</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>

--- a/Assets/06.Table/DailyMission.xlsx
+++ b/Assets/06.Table/DailyMission.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D2B76A-8F7B-43EE-A524-FDAB960CF898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBFF821-6AAC-4C67-8FFA-D5690CC2F3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="2520" yWindow="2610" windowWidth="35610" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DailyMission" sheetId="1" r:id="rId1"/>
@@ -178,7 +178,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,13 +228,26 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -272,12 +285,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -311,8 +327,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="나쁨" xfId="1" builtinId="27"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -628,7 +663,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -673,13 +708,13 @@
         <v>36</v>
       </c>
       <c r="D2" s="5">
-        <v>500</v>
+        <v>50000</v>
       </c>
       <c r="E2" s="5">
         <v>0</v>
       </c>
       <c r="F2" s="5">
-        <v>500</v>
+        <v>50000</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -696,13 +731,13 @@
         <v>25</v>
       </c>
       <c r="D3" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
       </c>
       <c r="F3" s="5">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -719,13 +754,13 @@
         <v>17</v>
       </c>
       <c r="D4" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -742,38 +777,38 @@
         <v>29</v>
       </c>
       <c r="D5" s="5">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
       </c>
       <c r="F5" s="5">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+    <row r="6" spans="1:7" s="11" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="13">
         <v>10</v>
       </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13">
         <v>20</v>
       </c>
-      <c r="G6" t="b">
+      <c r="G6" s="11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -788,13 +823,13 @@
         <v>22</v>
       </c>
       <c r="D7" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E7" s="3">
         <v>0</v>
       </c>
       <c r="F7" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -811,13 +846,13 @@
         <v>30</v>
       </c>
       <c r="D8" s="5">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
       </c>
       <c r="F8" s="5">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -869,26 +904,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+    <row r="11" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="15">
         <v>10</v>
       </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7">
+      <c r="E11" s="15">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15">
         <v>1000</v>
       </c>
-      <c r="G11" t="b">
+      <c r="G11" s="11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -903,61 +938,61 @@
         <v>33</v>
       </c>
       <c r="D12" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E12" s="7">
         <v>0</v>
       </c>
       <c r="F12" s="7">
+        <v>5000</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="15">
+        <v>1</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15">
         <v>500</v>
       </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
-        <v>500</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+      <c r="G13" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="D14" s="15">
+        <v>1</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0</v>
+      </c>
+      <c r="F14" s="15">
         <v>5000</v>
       </c>
-      <c r="G14" t="b">
+      <c r="G14" s="11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -972,13 +1007,13 @@
         <v>34</v>
       </c>
       <c r="D15" s="7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E15" s="7">
         <v>0</v>
       </c>
       <c r="F15" s="7">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -995,13 +1030,13 @@
         <v>37</v>
       </c>
       <c r="D16" s="7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E16" s="7">
         <v>0</v>
       </c>
       <c r="F16" s="7">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -1018,13 +1053,13 @@
         <v>35</v>
       </c>
       <c r="D17" s="7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E17" s="7">
         <v>0</v>
       </c>
       <c r="F17" s="7">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
